--- a/My 3D RPG/Assets/StaticData/Excel/OriginInfo.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/OriginInfo.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/My 3D RPG/Assets/StaticData/Excel/OriginInfo.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/OriginInfo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,14 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxMana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxManaFactor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>behaviour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>behaviourFactor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +59,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxEnergyFactor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,30 +413,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -453,69 +449,57 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -545,12 +529,6 @@
       </c>
       <c r="J3">
         <v>2</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
